--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1995651.710378092</v>
+        <v>-1998390.140580154</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>184.6270887277357</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>89.83120805409382</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>155.7836689523445</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.0074715749565</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>339.6725860131336</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186935</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>282.0375089888356</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.5544977453935</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>57.1350773516116</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>128.0990639665131</v>
       </c>
       <c r="H8" t="n">
-        <v>298.1344462495387</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -1190,16 +1190,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>100.582751982419</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>197.8988188451034</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>104.7777418077832</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>35.55160172423379</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3506,13 +3506,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1472.636689840854</v>
+        <v>869.7666648640161</v>
       </c>
       <c r="C2" t="n">
-        <v>1472.636689840854</v>
+        <v>500.8041479236044</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.144681024959</v>
+        <v>142.5384493168539</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.144681024959</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F2" t="n">
-        <v>875.158776235352</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073758</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>605.2571586872723</v>
       </c>
       <c r="L2" t="n">
-        <v>747.2457212709456</v>
+        <v>842.8799399054635</v>
       </c>
       <c r="M2" t="n">
-        <v>1388.26893089084</v>
+        <v>1138.950506463065</v>
       </c>
       <c r="N2" t="n">
-        <v>1693.744037126425</v>
+        <v>1444.42561269865</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443059</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.241780077746</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2236.241780077746</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="W2" t="n">
-        <v>2236.241780077746</v>
+        <v>1629.832263189218</v>
       </c>
       <c r="X2" t="n">
-        <v>1862.776021816666</v>
+        <v>1256.366504928138</v>
       </c>
       <c r="Y2" t="n">
-        <v>1472.636689840854</v>
+        <v>1256.366504928138</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093827</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>585.1891840496866</v>
       </c>
       <c r="L3" t="n">
-        <v>669.9499323155136</v>
+        <v>1161.911999152941</v>
       </c>
       <c r="M3" t="n">
-        <v>933.8894638110014</v>
+        <v>1425.851530648428</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231663</v>
+        <v>1711.185401081761</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2211.490617692507</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="C4" t="n">
-        <v>2211.490617692507</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>2061.373978280172</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>1913.460884697779</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>1766.570937199868</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G4" t="n">
-        <v>1598.249164792992</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H4" t="n">
-        <v>1446.529076243577</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102682</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110047</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.33407339585</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713995</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046535</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789136</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137291</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773335</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="S4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="T4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="U4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="V4" t="n">
-        <v>2589.992766140986</v>
+        <v>1056.517821155233</v>
       </c>
       <c r="W4" t="n">
-        <v>2589.992766140986</v>
+        <v>1056.517821155233</v>
       </c>
       <c r="X4" t="n">
-        <v>2362.003215242969</v>
+        <v>899.1605797892288</v>
       </c>
       <c r="Y4" t="n">
-        <v>2211.490617692507</v>
+        <v>678.3680006456987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.443666017298</v>
+        <v>1519.561383463179</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.481149076886</v>
+        <v>1150.598866522767</v>
       </c>
       <c r="D5" t="n">
-        <v>860.2154504701355</v>
+        <v>792.3331679160165</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>406.5449153177722</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>63.44129308228369</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477381</v>
@@ -4583,34 +4583,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2258.929878797414</v>
       </c>
       <c r="W5" t="n">
-        <v>2258.929878797415</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="X5" t="n">
-        <v>1974.043506081419</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="Y5" t="n">
-        <v>1974.043506081419</v>
+        <v>1906.1612235273</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518195</v>
+        <v>1815.732952862747</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.5002132301805</v>
+        <v>428.5648770081245</v>
       </c>
       <c r="C7" t="n">
-        <v>350.5640303022736</v>
+        <v>259.6286940802177</v>
       </c>
       <c r="D7" t="n">
-        <v>200.4473908899379</v>
+        <v>109.5120546678819</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4473908899379</v>
+        <v>109.5120546678819</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>109.5120546678819</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.049095695859</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.931318706258</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2468305003707</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2468305003707</v>
+        <v>1058.995471879912</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2468305003707</v>
+        <v>831.0059209818944</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.4542513568406</v>
+        <v>610.2133418383643</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1226.851825921871</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.851825921871</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.851825921871</v>
+        <v>961.4937567413692</v>
       </c>
       <c r="E8" t="n">
-        <v>841.063573323627</v>
+        <v>961.4937567413692</v>
       </c>
       <c r="F8" t="n">
-        <v>430.0776685340194</v>
+        <v>550.5078519517617</v>
       </c>
       <c r="G8" t="n">
-        <v>418.4362307745554</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4823,31 +4823,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2003.590997961804</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.590997961805</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.590997961805</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X8" t="n">
-        <v>2003.590997961805</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="Y8" t="n">
-        <v>1613.451665985993</v>
+        <v>1319.75945534812</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>491.5015312480865</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>788.8134803644011</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>814.303254310484</v>
+        <v>472.4514170392431</v>
       </c>
       <c r="C10" t="n">
-        <v>645.3670713825771</v>
+        <v>303.5152341113362</v>
       </c>
       <c r="D10" t="n">
-        <v>495.2504319702414</v>
+        <v>153.3985946990005</v>
       </c>
       <c r="E10" t="n">
-        <v>347.3373383878483</v>
+        <v>153.3985946990005</v>
       </c>
       <c r="F10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4987,25 +4987,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1250.636207346611</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1250.636207346611</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>995.9517191407238</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>995.9517191407238</v>
+        <v>1102.88201191103</v>
       </c>
       <c r="X10" t="n">
-        <v>995.9517191407238</v>
+        <v>874.892461013013</v>
       </c>
       <c r="Y10" t="n">
-        <v>995.9517191407238</v>
+        <v>654.0998818694828</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.613315601761</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738537</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>738.560493261518</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E13" t="n">
-        <v>590.6473996791249</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473548</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.05435957553</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780432</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1108.373486799501</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>887.5809076559709</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5601,16 +5601,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311324</v>
@@ -7588,16 +7588,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.6735093079815</v>
       </c>
       <c r="L2" t="n">
-        <v>224.1699036371059</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>299.4516747346757</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>87.99713246345345</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.46701043772</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>191.4694788103614</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>170.0559528929472</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>292.0991620181679</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>24.73668026021704</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>23.80792001142592</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.57718177713829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>40.64330621514807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>190.1580536648034</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>37.12601365260463</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1337281.385173622</v>
+        <v>1337281.385173621</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287324</v>
+        <v>64921.82232287327</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="E2" t="n">
+        <v>80714.65996900066</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80714.65996900063</v>
+      </c>
+      <c r="G2" t="n">
         <v>80714.65996900058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>80714.65996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>80714.65996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
         <v>80714.6599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
         <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642837</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898935</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61714.61558823341</v>
+        <v>61714.61558823357</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26427,22 +26427,22 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695071</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.48053169507</v>
+        <v>6287.480531695081</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="J4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478855</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478852</v>
@@ -26451,13 +26451,13 @@
         <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478859</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1025820.80403775</v>
+        <v>-1026250.362904337</v>
       </c>
       <c r="C6" t="n">
-        <v>-313208.0268902215</v>
+        <v>-313208.0268902227</v>
       </c>
       <c r="D6" t="n">
         <v>-140443.6671003292</v>
       </c>
       <c r="E6" t="n">
-        <v>-527584.2181323523</v>
+        <v>-527618.9560577881</v>
       </c>
       <c r="F6" t="n">
-        <v>-26695.35038660157</v>
+        <v>-26730.08831203723</v>
       </c>
       <c r="G6" t="n">
-        <v>-26695.35038660155</v>
+        <v>-26730.08831203727</v>
       </c>
       <c r="H6" t="n">
-        <v>-26695.35038660158</v>
+        <v>-26730.08831203727</v>
       </c>
       <c r="I6" t="n">
-        <v>-26695.35038660158</v>
+        <v>-26730.08831203727</v>
       </c>
       <c r="J6" t="n">
-        <v>-224180.0134819554</v>
+        <v>-224180.0134819553</v>
       </c>
       <c r="K6" t="n">
-        <v>-35338.27866227558</v>
+        <v>-35338.27866227551</v>
       </c>
       <c r="L6" t="n">
-        <v>-35338.27866227555</v>
+        <v>-35338.27866227552</v>
       </c>
       <c r="M6" t="n">
         <v>-166222.7355665108</v>
       </c>
       <c r="N6" t="n">
-        <v>-35338.2786622756</v>
+        <v>-35338.27866227565</v>
       </c>
       <c r="O6" t="n">
-        <v>-54765.99665590734</v>
+        <v>-54765.99665590732</v>
       </c>
       <c r="P6" t="n">
-        <v>-35338.27866227554</v>
+        <v>-35338.27866227555</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.725434152235</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>69.50346729863472</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>227.2965329908033</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27594,13 +27594,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>69.92598643669263</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>67.20345972857785</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>87.69359168963348</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.27748243654383</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>109.1613494991179</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>283.4259594153563</v>
       </c>
       <c r="H8" t="n">
-        <v>2.651840998921102</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>44.83829604051228</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28059,10 +28059,10 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>22.80640986833501</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30226,13 +30226,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500301</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>615.1181176946646</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>338.6542681503486</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>509.0826837242976</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>744.7005224868051</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520769</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>315.1028144241378</v>
       </c>
       <c r="L2" t="n">
-        <v>464.192914968613</v>
+        <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>299.0611783410121</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.5607133692773</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269026</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938085</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185455</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643751</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840959</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691787</v>
       </c>
       <c r="N3" t="n">
-        <v>587.6677054754163</v>
+        <v>288.2160307407397</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>329.2142554447243</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689364</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168693</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
         <v>432.9873135755192</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35030,10 +35030,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>497.4637052508702</v>
+        <v>425.7606191871907</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>380.0164378035054</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35267,10 +35267,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280117</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>483.7764056113314</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>196.0580237059041</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>613.3588104034718</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
